--- a/docs/詳細設計書/詳細設計書_在庫一覧画面.xlsx
+++ b/docs/詳細設計書/詳細設計書_在庫一覧画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDF192-FEAB-4AF2-B6D0-D70F3B17C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F2F10-58A9-4565-9E01-93A924E1981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="補足説明" sheetId="10" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面イメージ!$A$1:$AO$281</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面イメージ!$A$1:$AO$309</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="224">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -1037,9 +1037,6 @@
       <t>モジレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※不正な入力を検知しました。</t>
   </si>
   <si>
     <t>1.1 在庫情報取得</t>
@@ -1611,6 +1608,30 @@
   </si>
   <si>
     <t>ログレベル：INFO　処理対象：StockList 処理内容：POST-search　として</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類：※不正な入力を検知しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称：※不正な入力を検知しました。</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー項目が複数ある場合それぞれ表示する</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5040,10 +5061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC37E641-D357-1E41-80D2-97EC37ADBDD8}">
-  <dimension ref="A1:AY279"/>
+  <dimension ref="A1:AY307"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A235" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J245" sqref="J245:M245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -5195,7 +5216,7 @@
       <c r="AC3" s="77"/>
       <c r="AD3" s="77"/>
       <c r="AE3" s="84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF3" s="84"/>
       <c r="AG3" s="84"/>
@@ -6282,7 +6303,7 @@
       <c r="A35" s="7"/>
       <c r="C35" s="26"/>
       <c r="F35" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM35" s="7"/>
       <c r="AO35" s="8"/>
@@ -6395,7 +6416,7 @@
         <v>58</v>
       </c>
       <c r="N40" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O40" s="92"/>
       <c r="P40" s="92"/>
@@ -6404,7 +6425,7 @@
         <v>38</v>
       </c>
       <c r="T40" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U40" s="92"/>
       <c r="V40" s="92"/>
@@ -7194,7 +7215,7 @@
     <row r="61" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A61" s="7"/>
       <c r="C61" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM61" s="7"/>
       <c r="AO61" s="8"/>
@@ -7203,10 +7224,10 @@
       <c r="A62" s="7"/>
       <c r="C62" s="26"/>
       <c r="D62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="AM62" s="7"/>
       <c r="AO62" s="8"/>
@@ -7328,7 +7349,7 @@
         <v>38</v>
       </c>
       <c r="T67" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U67" s="92"/>
       <c r="V67" s="92"/>
@@ -7355,7 +7376,7 @@
       <c r="C68" s="7"/>
       <c r="G68" s="8"/>
       <c r="J68" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ68" s="8"/>
       <c r="AM68" s="7"/>
@@ -7456,7 +7477,7 @@
       <c r="L71" s="90"/>
       <c r="M71" s="90"/>
       <c r="N71" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O71" s="90"/>
       <c r="P71" s="90"/>
@@ -7498,7 +7519,7 @@
       <c r="L72" s="90"/>
       <c r="M72" s="90"/>
       <c r="N72" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O72" s="90"/>
       <c r="P72" s="90"/>
@@ -7540,7 +7561,7 @@
       <c r="L73" s="90"/>
       <c r="M73" s="90"/>
       <c r="N73" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O73" s="90"/>
       <c r="P73" s="90"/>
@@ -7582,7 +7603,7 @@
       <c r="L74" s="90"/>
       <c r="M74" s="90"/>
       <c r="N74" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O74" s="90"/>
       <c r="P74" s="90"/>
@@ -7782,7 +7803,7 @@
     <row r="88" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A88" s="7"/>
       <c r="C88" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM88" s="7"/>
       <c r="AO88" s="8"/>
@@ -7791,10 +7812,10 @@
       <c r="A89" s="7"/>
       <c r="C89" s="26"/>
       <c r="D89" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM89" s="7"/>
       <c r="AO89" s="8"/>
@@ -7907,7 +7928,7 @@
         <v>58</v>
       </c>
       <c r="N94" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O94" s="92"/>
       <c r="P94" s="92"/>
@@ -7943,7 +7964,7 @@
       <c r="C95" s="7"/>
       <c r="G95" s="8"/>
       <c r="J95" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AJ95" s="8"/>
       <c r="AM95" s="7"/>
@@ -8234,7 +8255,7 @@
     <row r="115" spans="1:51" ht="19.899999999999999" customHeight="1">
       <c r="A115" s="7"/>
       <c r="C115" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AM115" s="7"/>
       <c r="AO115" s="8"/>
@@ -8243,10 +8264,10 @@
       <c r="A116" s="7"/>
       <c r="C116" s="26"/>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM116" s="7"/>
       <c r="AO116" s="8"/>
@@ -8359,7 +8380,7 @@
         <v>58</v>
       </c>
       <c r="N121" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O121" s="92"/>
       <c r="P121" s="92"/>
@@ -8368,7 +8389,7 @@
         <v>38</v>
       </c>
       <c r="T121" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U121" s="92"/>
       <c r="V121" s="92"/>
@@ -8397,7 +8418,7 @@
       <c r="C122" s="7"/>
       <c r="G122" s="8"/>
       <c r="J122" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ122" s="8"/>
       <c r="AM122" s="7"/>
@@ -8450,13 +8471,13 @@
       <c r="C124" s="7"/>
       <c r="G124" s="8"/>
       <c r="J124" s="90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K124" s="90"/>
       <c r="L124" s="90"/>
       <c r="M124" s="90"/>
       <c r="N124" s="109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O124" s="109"/>
       <c r="P124" s="109"/>
@@ -8492,13 +8513,13 @@
       <c r="C125" s="7"/>
       <c r="G125" s="8"/>
       <c r="J125" s="90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K125" s="90"/>
       <c r="L125" s="90"/>
       <c r="M125" s="90"/>
       <c r="N125" s="109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O125" s="109"/>
       <c r="P125" s="109"/>
@@ -8515,7 +8536,7 @@
       <c r="W125" s="92"/>
       <c r="X125" s="93"/>
       <c r="Y125" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z125" s="111"/>
       <c r="AA125" s="111"/>
@@ -8536,13 +8557,13 @@
       <c r="C126" s="7"/>
       <c r="G126" s="8"/>
       <c r="J126" s="90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K126" s="90"/>
       <c r="L126" s="90"/>
       <c r="M126" s="90"/>
       <c r="N126" s="109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O126" s="109"/>
       <c r="P126" s="109"/>
@@ -8559,7 +8580,7 @@
       <c r="W126" s="92"/>
       <c r="X126" s="93"/>
       <c r="Y126" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z126" s="111"/>
       <c r="AA126" s="111"/>
@@ -8580,13 +8601,13 @@
       <c r="C127" s="7"/>
       <c r="G127" s="8"/>
       <c r="J127" s="90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K127" s="90"/>
       <c r="L127" s="90"/>
       <c r="M127" s="90"/>
       <c r="N127" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O127" s="109"/>
       <c r="P127" s="109"/>
@@ -8603,7 +8624,7 @@
       <c r="W127" s="92"/>
       <c r="X127" s="93"/>
       <c r="Y127" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z127" s="111"/>
       <c r="AA127" s="111"/>
@@ -8624,13 +8645,13 @@
       <c r="C128" s="7"/>
       <c r="G128" s="8"/>
       <c r="J128" s="90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K128" s="90"/>
       <c r="L128" s="90"/>
       <c r="M128" s="90"/>
       <c r="N128" s="113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O128" s="113"/>
       <c r="P128" s="113"/>
@@ -8647,7 +8668,7 @@
       <c r="W128" s="92"/>
       <c r="X128" s="93"/>
       <c r="Y128" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z128" s="111"/>
       <c r="AA128" s="111"/>
@@ -8668,13 +8689,13 @@
       <c r="C129" s="7"/>
       <c r="G129" s="8"/>
       <c r="J129" s="90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K129" s="90"/>
       <c r="L129" s="90"/>
       <c r="M129" s="90"/>
       <c r="N129" s="109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O129" s="109"/>
       <c r="P129" s="109"/>
@@ -8691,7 +8712,7 @@
       <c r="W129" s="92"/>
       <c r="X129" s="93"/>
       <c r="Y129" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z129" s="111"/>
       <c r="AA129" s="111"/>
@@ -8712,13 +8733,13 @@
       <c r="C130" s="7"/>
       <c r="G130" s="8"/>
       <c r="J130" s="90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K130" s="90"/>
       <c r="L130" s="90"/>
       <c r="M130" s="90"/>
       <c r="N130" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O130" s="109"/>
       <c r="P130" s="109"/>
@@ -8735,7 +8756,7 @@
       <c r="W130" s="92"/>
       <c r="X130" s="93"/>
       <c r="Y130" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z130" s="111"/>
       <c r="AA130" s="111"/>
@@ -8756,13 +8777,13 @@
       <c r="C131" s="7"/>
       <c r="G131" s="8"/>
       <c r="J131" s="90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K131" s="90"/>
       <c r="L131" s="90"/>
       <c r="M131" s="90"/>
       <c r="N131" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O131" s="109"/>
       <c r="P131" s="109"/>
@@ -8779,7 +8800,7 @@
       <c r="W131" s="92"/>
       <c r="X131" s="93"/>
       <c r="Y131" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z131" s="111"/>
       <c r="AA131" s="111"/>
@@ -8800,13 +8821,13 @@
       <c r="C132" s="7"/>
       <c r="G132" s="8"/>
       <c r="J132" s="90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K132" s="90"/>
       <c r="L132" s="90"/>
       <c r="M132" s="90"/>
       <c r="N132" s="109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O132" s="109"/>
       <c r="P132" s="109"/>
@@ -8823,7 +8844,7 @@
       <c r="W132" s="92"/>
       <c r="X132" s="93"/>
       <c r="Y132" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z132" s="111"/>
       <c r="AA132" s="111"/>
@@ -8844,13 +8865,13 @@
       <c r="C133" s="7"/>
       <c r="G133" s="8"/>
       <c r="J133" s="90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K133" s="90"/>
       <c r="L133" s="90"/>
       <c r="M133" s="90"/>
       <c r="N133" s="109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O133" s="109"/>
       <c r="P133" s="109"/>
@@ -8867,7 +8888,7 @@
       <c r="W133" s="92"/>
       <c r="X133" s="93"/>
       <c r="Y133" s="110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z133" s="111"/>
       <c r="AA133" s="111"/>
@@ -9014,7 +9035,7 @@
     <row r="142" spans="1:51" ht="19.899999999999999" customHeight="1">
       <c r="A142" s="7"/>
       <c r="C142" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM142" s="7"/>
       <c r="AO142" s="8"/>
@@ -9023,10 +9044,10 @@
       <c r="A143" s="7"/>
       <c r="C143" s="26"/>
       <c r="D143" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM143" s="7"/>
       <c r="AO143" s="8"/>
@@ -9177,7 +9198,7 @@
       <c r="C149" s="7"/>
       <c r="G149" s="8"/>
       <c r="J149" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AJ149" s="8"/>
       <c r="AM149" s="7"/>
@@ -9509,7 +9530,7 @@
       <c r="C170" s="58"/>
       <c r="D170" s="58"/>
       <c r="E170" s="58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F170" s="58"/>
       <c r="G170" s="58"/>
@@ -9549,10 +9570,10 @@
       <c r="A171" s="7"/>
       <c r="C171" s="26"/>
       <c r="D171" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM171" s="7"/>
       <c r="AO171" s="8"/>
@@ -9674,7 +9695,7 @@
         <v>38</v>
       </c>
       <c r="T176" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U176" s="92"/>
       <c r="V176" s="92"/>
@@ -9703,7 +9724,7 @@
       <c r="C177" s="7"/>
       <c r="G177" s="8"/>
       <c r="J177" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ177" s="8"/>
       <c r="AM177" s="7"/>
@@ -9973,7 +9994,7 @@
     <row r="199" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A199" s="7"/>
       <c r="H199" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM199" s="7"/>
       <c r="AO199" s="8"/>
@@ -10086,7 +10107,7 @@
         <v>58</v>
       </c>
       <c r="N204" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O204" s="92"/>
       <c r="P204" s="92"/>
@@ -10095,7 +10116,7 @@
         <v>38</v>
       </c>
       <c r="T204" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U204" s="92"/>
       <c r="V204" s="92"/>
@@ -10124,7 +10145,7 @@
       <c r="C205" s="7"/>
       <c r="G205" s="8"/>
       <c r="M205" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N205" s="47"/>
       <c r="O205" s="47"/>
@@ -10867,7 +10888,7 @@
     <row r="225" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A225" s="7"/>
       <c r="G225" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM225" s="7"/>
       <c r="AO225" s="8"/>
@@ -10875,7 +10896,7 @@
     <row r="226" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A226" s="7"/>
       <c r="H226" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM226" s="7"/>
       <c r="AO226" s="8"/>
@@ -10988,7 +11009,7 @@
         <v>58</v>
       </c>
       <c r="N231" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O231" s="92"/>
       <c r="P231" s="92"/>
@@ -10997,7 +11018,7 @@
         <v>38</v>
       </c>
       <c r="T231" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U231" s="92"/>
       <c r="V231" s="92"/>
@@ -11005,9 +11026,7 @@
       <c r="Y231" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z231" s="91" t="s">
-        <v>111</v>
-      </c>
+      <c r="Z231" s="91"/>
       <c r="AA231" s="93"/>
       <c r="AB231" s="90" t="s">
         <v>76</v>
@@ -11026,7 +11045,7 @@
       <c r="C232" s="7"/>
       <c r="G232" s="8"/>
       <c r="M232" s="46" t="s">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c r="N232" s="47"/>
       <c r="O232" s="47"/>
@@ -11773,179 +11792,1103 @@
     </row>
     <row r="253" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A253" s="7"/>
+      <c r="G253" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="AM253" s="7"/>
       <c r="AO253" s="8"/>
     </row>
     <row r="254" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A254" s="7"/>
+      <c r="H254" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AM254" s="7"/>
       <c r="AO254" s="8"/>
     </row>
     <row r="255" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A255" s="7"/>
+      <c r="H255" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="AM255" s="7"/>
       <c r="AO255" s="8"/>
     </row>
     <row r="256" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A256" s="7"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="4"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5"/>
+      <c r="V256" s="5"/>
+      <c r="W256" s="5"/>
+      <c r="X256" s="5"/>
+      <c r="Y256" s="5"/>
+      <c r="Z256" s="5"/>
+      <c r="AA256" s="5"/>
+      <c r="AB256" s="5"/>
+      <c r="AC256" s="5"/>
+      <c r="AD256" s="5"/>
+      <c r="AE256" s="5"/>
+      <c r="AF256" s="5"/>
+      <c r="AG256" s="5"/>
+      <c r="AH256" s="5"/>
+      <c r="AI256" s="5"/>
+      <c r="AJ256" s="6"/>
       <c r="AM256" s="7"/>
       <c r="AO256" s="8"/>
     </row>
     <row r="257" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="94"/>
+      <c r="E257" s="94"/>
+      <c r="F257" s="94"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="9"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+      <c r="K257" s="10"/>
+      <c r="L257" s="10"/>
+      <c r="M257" s="10"/>
+      <c r="N257" s="10"/>
+      <c r="O257" s="10"/>
+      <c r="P257" s="10"/>
+      <c r="Q257" s="10"/>
+      <c r="R257" s="10"/>
+      <c r="S257" s="10"/>
+      <c r="T257" s="10"/>
+      <c r="U257" s="10"/>
+      <c r="V257" s="10"/>
+      <c r="W257" s="10"/>
+      <c r="X257" s="10"/>
+      <c r="Y257" s="10"/>
+      <c r="Z257" s="10"/>
+      <c r="AA257" s="10"/>
+      <c r="AB257" s="10"/>
+      <c r="AC257" s="10"/>
+      <c r="AD257" s="10"/>
+      <c r="AE257" s="10"/>
+      <c r="AF257" s="10"/>
+      <c r="AG257" s="10"/>
+      <c r="AH257" s="10"/>
+      <c r="AI257" s="10"/>
+      <c r="AJ257" s="11"/>
       <c r="AM257" s="7"/>
       <c r="AO257" s="8"/>
     </row>
     <row r="258" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A258" s="7"/>
+      <c r="C258" s="7"/>
+      <c r="G258" s="8"/>
+      <c r="AJ258" s="8"/>
       <c r="AM258" s="7"/>
       <c r="AO258" s="8"/>
     </row>
     <row r="259" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A259" s="7"/>
+      <c r="C259" s="7"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ259" s="8"/>
       <c r="AM259" s="7"/>
       <c r="AO259" s="8"/>
     </row>
     <row r="260" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="G260" s="8"/>
+      <c r="J260" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N260" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="O260" s="92"/>
+      <c r="P260" s="92"/>
+      <c r="Q260" s="93"/>
+      <c r="S260" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T260" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="U260" s="92"/>
+      <c r="V260" s="92"/>
+      <c r="W260" s="93"/>
+      <c r="Y260" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z260" s="91"/>
+      <c r="AA260" s="93"/>
+      <c r="AB260" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC260" s="90"/>
+      <c r="AF260" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG260" s="95"/>
+      <c r="AJ260" s="8"/>
       <c r="AM260" s="7"/>
       <c r="AO260" s="8"/>
     </row>
     <row r="261" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A261" s="7"/>
+      <c r="C261" s="7"/>
+      <c r="G261" s="8"/>
+      <c r="M261" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="N261" s="47"/>
+      <c r="O261" s="47"/>
+      <c r="P261" s="47"/>
+      <c r="Q261" s="47"/>
+      <c r="R261" s="47"/>
+      <c r="S261" s="47"/>
+      <c r="T261" s="47"/>
+      <c r="U261" s="47"/>
+      <c r="V261" s="47"/>
+      <c r="W261" s="47"/>
+      <c r="AJ261" s="8"/>
       <c r="AM261" s="7"/>
       <c r="AO261" s="8"/>
     </row>
     <row r="262" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A262" s="7"/>
+      <c r="C262" s="7"/>
+      <c r="G262" s="8"/>
+      <c r="M262" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="N262" s="47"/>
+      <c r="O262" s="47"/>
+      <c r="P262" s="47"/>
+      <c r="Q262" s="47"/>
+      <c r="R262" s="47"/>
+      <c r="S262" s="47"/>
+      <c r="T262" s="47"/>
+      <c r="U262" s="47"/>
+      <c r="V262" s="47"/>
+      <c r="W262" s="47"/>
+      <c r="AJ262" s="8"/>
       <c r="AM262" s="7"/>
       <c r="AO262" s="8"/>
     </row>
     <row r="263" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A263" s="7"/>
+      <c r="C263" s="7"/>
+      <c r="G263" s="8"/>
+      <c r="J263" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="K263" s="96"/>
+      <c r="L263" s="96"/>
+      <c r="M263" s="96"/>
+      <c r="N263" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="O263" s="96"/>
+      <c r="P263" s="96"/>
+      <c r="Q263" s="96"/>
+      <c r="R263" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="S263" s="96"/>
+      <c r="T263" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="U263" s="97"/>
+      <c r="V263" s="97"/>
+      <c r="W263" s="97"/>
+      <c r="X263" s="97"/>
+      <c r="Y263" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z263" s="99"/>
+      <c r="AA263" s="99"/>
+      <c r="AB263" s="99"/>
+      <c r="AC263" s="99"/>
+      <c r="AD263" s="99"/>
+      <c r="AE263" s="99"/>
+      <c r="AF263" s="99"/>
+      <c r="AG263" s="100"/>
+      <c r="AJ263" s="8"/>
       <c r="AM263" s="7"/>
       <c r="AO263" s="8"/>
     </row>
     <row r="264" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A264" s="7"/>
+      <c r="C264" s="7"/>
+      <c r="G264" s="8"/>
+      <c r="J264" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K264" s="90"/>
+      <c r="L264" s="90"/>
+      <c r="M264" s="90"/>
+      <c r="N264" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="O264" s="90"/>
+      <c r="P264" s="90"/>
+      <c r="Q264" s="90"/>
+      <c r="R264" s="90">
+        <v>10</v>
+      </c>
+      <c r="S264" s="90"/>
+      <c r="T264" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="U264" s="90"/>
+      <c r="V264" s="90"/>
+      <c r="W264" s="90"/>
+      <c r="X264" s="90"/>
+      <c r="Y264" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z264" s="92"/>
+      <c r="AA264" s="92"/>
+      <c r="AB264" s="92"/>
+      <c r="AC264" s="92"/>
+      <c r="AD264" s="92"/>
+      <c r="AE264" s="92"/>
+      <c r="AF264" s="92"/>
+      <c r="AG264" s="93"/>
+      <c r="AJ264" s="8"/>
       <c r="AM264" s="7"/>
       <c r="AO264" s="8"/>
     </row>
     <row r="265" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A265" s="7"/>
+      <c r="C265" s="7"/>
+      <c r="G265" s="8"/>
+      <c r="J265" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K265" s="90"/>
+      <c r="L265" s="90"/>
+      <c r="M265" s="90"/>
+      <c r="N265" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O265" s="90"/>
+      <c r="P265" s="90"/>
+      <c r="Q265" s="90"/>
+      <c r="R265" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S265" s="90"/>
+      <c r="T265" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U265" s="92"/>
+      <c r="V265" s="92"/>
+      <c r="W265" s="92"/>
+      <c r="X265" s="93"/>
+      <c r="Y265" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z265" s="92"/>
+      <c r="AA265" s="92"/>
+      <c r="AB265" s="92"/>
+      <c r="AC265" s="92"/>
+      <c r="AD265" s="92"/>
+      <c r="AE265" s="92"/>
+      <c r="AF265" s="92"/>
+      <c r="AG265" s="93"/>
+      <c r="AJ265" s="8"/>
       <c r="AM265" s="7"/>
       <c r="AO265" s="8"/>
     </row>
     <row r="266" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A266" s="7"/>
+      <c r="C266" s="7"/>
+      <c r="G266" s="8"/>
+      <c r="J266" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K266" s="90"/>
+      <c r="L266" s="90"/>
+      <c r="M266" s="90"/>
+      <c r="N266" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O266" s="90"/>
+      <c r="P266" s="90"/>
+      <c r="Q266" s="90"/>
+      <c r="R266" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S266" s="90"/>
+      <c r="T266" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U266" s="92"/>
+      <c r="V266" s="92"/>
+      <c r="W266" s="92"/>
+      <c r="X266" s="93"/>
+      <c r="Y266" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z266" s="92"/>
+      <c r="AA266" s="92"/>
+      <c r="AB266" s="92"/>
+      <c r="AC266" s="92"/>
+      <c r="AD266" s="92"/>
+      <c r="AE266" s="92"/>
+      <c r="AF266" s="92"/>
+      <c r="AG266" s="93"/>
+      <c r="AJ266" s="8"/>
       <c r="AM266" s="7"/>
       <c r="AO266" s="8"/>
     </row>
     <row r="267" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A267" s="7"/>
+      <c r="C267" s="7"/>
+      <c r="G267" s="8"/>
+      <c r="J267" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K267" s="90"/>
+      <c r="L267" s="90"/>
+      <c r="M267" s="90"/>
+      <c r="N267" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O267" s="90"/>
+      <c r="P267" s="90"/>
+      <c r="Q267" s="90"/>
+      <c r="R267" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S267" s="90"/>
+      <c r="T267" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U267" s="92"/>
+      <c r="V267" s="92"/>
+      <c r="W267" s="92"/>
+      <c r="X267" s="93"/>
+      <c r="Y267" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z267" s="92"/>
+      <c r="AA267" s="92"/>
+      <c r="AB267" s="92"/>
+      <c r="AC267" s="92"/>
+      <c r="AD267" s="92"/>
+      <c r="AE267" s="92"/>
+      <c r="AF267" s="92"/>
+      <c r="AG267" s="93"/>
+      <c r="AJ267" s="8"/>
       <c r="AM267" s="7"/>
       <c r="AO267" s="8"/>
     </row>
     <row r="268" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A268" s="7"/>
+      <c r="C268" s="7"/>
+      <c r="G268" s="8"/>
+      <c r="J268" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K268" s="90"/>
+      <c r="L268" s="90"/>
+      <c r="M268" s="90"/>
+      <c r="N268" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O268" s="90"/>
+      <c r="P268" s="90"/>
+      <c r="Q268" s="90"/>
+      <c r="R268" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S268" s="90"/>
+      <c r="T268" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U268" s="92"/>
+      <c r="V268" s="92"/>
+      <c r="W268" s="92"/>
+      <c r="X268" s="93"/>
+      <c r="Y268" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z268" s="92"/>
+      <c r="AA268" s="92"/>
+      <c r="AB268" s="92"/>
+      <c r="AC268" s="92"/>
+      <c r="AD268" s="92"/>
+      <c r="AE268" s="92"/>
+      <c r="AF268" s="92"/>
+      <c r="AG268" s="93"/>
+      <c r="AJ268" s="8"/>
       <c r="AM268" s="7"/>
       <c r="AO268" s="8"/>
     </row>
     <row r="269" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A269" s="7"/>
+      <c r="C269" s="7"/>
+      <c r="G269" s="8"/>
+      <c r="J269" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K269" s="90"/>
+      <c r="L269" s="90"/>
+      <c r="M269" s="90"/>
+      <c r="N269" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O269" s="90"/>
+      <c r="P269" s="90"/>
+      <c r="Q269" s="90"/>
+      <c r="R269" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S269" s="90"/>
+      <c r="T269" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U269" s="92"/>
+      <c r="V269" s="92"/>
+      <c r="W269" s="92"/>
+      <c r="X269" s="93"/>
+      <c r="Y269" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z269" s="92"/>
+      <c r="AA269" s="92"/>
+      <c r="AB269" s="92"/>
+      <c r="AC269" s="92"/>
+      <c r="AD269" s="92"/>
+      <c r="AE269" s="92"/>
+      <c r="AF269" s="92"/>
+      <c r="AG269" s="93"/>
+      <c r="AJ269" s="8"/>
       <c r="AM269" s="7"/>
       <c r="AO269" s="8"/>
     </row>
     <row r="270" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A270" s="7"/>
+      <c r="C270" s="7"/>
+      <c r="G270" s="8"/>
+      <c r="J270" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K270" s="90"/>
+      <c r="L270" s="90"/>
+      <c r="M270" s="90"/>
+      <c r="N270" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O270" s="90"/>
+      <c r="P270" s="90"/>
+      <c r="Q270" s="90"/>
+      <c r="R270" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S270" s="90"/>
+      <c r="T270" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U270" s="92"/>
+      <c r="V270" s="92"/>
+      <c r="W270" s="92"/>
+      <c r="X270" s="93"/>
+      <c r="Y270" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z270" s="92"/>
+      <c r="AA270" s="92"/>
+      <c r="AB270" s="92"/>
+      <c r="AC270" s="92"/>
+      <c r="AD270" s="92"/>
+      <c r="AE270" s="92"/>
+      <c r="AF270" s="92"/>
+      <c r="AG270" s="93"/>
+      <c r="AJ270" s="8"/>
       <c r="AM270" s="7"/>
       <c r="AO270" s="8"/>
     </row>
     <row r="271" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A271" s="7"/>
+      <c r="C271" s="7"/>
+      <c r="G271" s="8"/>
+      <c r="J271" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K271" s="90"/>
+      <c r="L271" s="90"/>
+      <c r="M271" s="90"/>
+      <c r="N271" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O271" s="90"/>
+      <c r="P271" s="90"/>
+      <c r="Q271" s="90"/>
+      <c r="R271" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S271" s="90"/>
+      <c r="T271" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U271" s="92"/>
+      <c r="V271" s="92"/>
+      <c r="W271" s="92"/>
+      <c r="X271" s="93"/>
+      <c r="Y271" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z271" s="92"/>
+      <c r="AA271" s="92"/>
+      <c r="AB271" s="92"/>
+      <c r="AC271" s="92"/>
+      <c r="AD271" s="92"/>
+      <c r="AE271" s="92"/>
+      <c r="AF271" s="92"/>
+      <c r="AG271" s="93"/>
+      <c r="AJ271" s="8"/>
       <c r="AM271" s="7"/>
       <c r="AO271" s="8"/>
     </row>
     <row r="272" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="G272" s="8"/>
+      <c r="J272" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K272" s="90"/>
+      <c r="L272" s="90"/>
+      <c r="M272" s="90"/>
+      <c r="N272" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O272" s="90"/>
+      <c r="P272" s="90"/>
+      <c r="Q272" s="90"/>
+      <c r="R272" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S272" s="90"/>
+      <c r="T272" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U272" s="92"/>
+      <c r="V272" s="92"/>
+      <c r="W272" s="92"/>
+      <c r="X272" s="93"/>
+      <c r="Y272" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z272" s="92"/>
+      <c r="AA272" s="92"/>
+      <c r="AB272" s="92"/>
+      <c r="AC272" s="92"/>
+      <c r="AD272" s="92"/>
+      <c r="AE272" s="92"/>
+      <c r="AF272" s="92"/>
+      <c r="AG272" s="93"/>
+      <c r="AJ272" s="8"/>
       <c r="AM272" s="7"/>
       <c r="AO272" s="8"/>
     </row>
     <row r="273" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="G273" s="8"/>
+      <c r="J273" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K273" s="90"/>
+      <c r="L273" s="90"/>
+      <c r="M273" s="90"/>
+      <c r="N273" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O273" s="90"/>
+      <c r="P273" s="90"/>
+      <c r="Q273" s="90"/>
+      <c r="R273" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S273" s="90"/>
+      <c r="T273" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U273" s="92"/>
+      <c r="V273" s="92"/>
+      <c r="W273" s="92"/>
+      <c r="X273" s="93"/>
+      <c r="Y273" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z273" s="92"/>
+      <c r="AA273" s="92"/>
+      <c r="AB273" s="92"/>
+      <c r="AC273" s="92"/>
+      <c r="AD273" s="92"/>
+      <c r="AE273" s="92"/>
+      <c r="AF273" s="92"/>
+      <c r="AG273" s="93"/>
+      <c r="AJ273" s="8"/>
       <c r="AM273" s="7"/>
       <c r="AO273" s="8"/>
     </row>
     <row r="274" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A274" s="7"/>
+      <c r="C274" s="7"/>
+      <c r="G274" s="8"/>
+      <c r="J274" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K274" s="90"/>
+      <c r="L274" s="90"/>
+      <c r="M274" s="90"/>
+      <c r="N274" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O274" s="90"/>
+      <c r="P274" s="90"/>
+      <c r="Q274" s="90"/>
+      <c r="R274" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S274" s="90"/>
+      <c r="T274" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U274" s="92"/>
+      <c r="V274" s="92"/>
+      <c r="W274" s="92"/>
+      <c r="X274" s="93"/>
+      <c r="Y274" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z274" s="92"/>
+      <c r="AA274" s="92"/>
+      <c r="AB274" s="92"/>
+      <c r="AC274" s="92"/>
+      <c r="AD274" s="92"/>
+      <c r="AE274" s="92"/>
+      <c r="AF274" s="92"/>
+      <c r="AG274" s="93"/>
+      <c r="AJ274" s="8"/>
       <c r="AM274" s="7"/>
       <c r="AO274" s="8"/>
     </row>
     <row r="275" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="G275" s="8"/>
+      <c r="J275" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K275" s="90"/>
+      <c r="L275" s="90"/>
+      <c r="M275" s="90"/>
+      <c r="N275" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O275" s="90"/>
+      <c r="P275" s="90"/>
+      <c r="Q275" s="90"/>
+      <c r="R275" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S275" s="90"/>
+      <c r="T275" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U275" s="92"/>
+      <c r="V275" s="92"/>
+      <c r="W275" s="92"/>
+      <c r="X275" s="93"/>
+      <c r="Y275" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z275" s="92"/>
+      <c r="AA275" s="92"/>
+      <c r="AB275" s="92"/>
+      <c r="AC275" s="92"/>
+      <c r="AD275" s="92"/>
+      <c r="AE275" s="92"/>
+      <c r="AF275" s="92"/>
+      <c r="AG275" s="93"/>
+      <c r="AJ275" s="8"/>
       <c r="AM275" s="7"/>
       <c r="AO275" s="8"/>
     </row>
     <row r="276" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A276" s="7"/>
+      <c r="C276" s="7"/>
+      <c r="G276" s="8"/>
+      <c r="J276" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K276" s="90"/>
+      <c r="L276" s="90"/>
+      <c r="M276" s="90"/>
+      <c r="N276" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O276" s="90"/>
+      <c r="P276" s="90"/>
+      <c r="Q276" s="90"/>
+      <c r="R276" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S276" s="90"/>
+      <c r="T276" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U276" s="92"/>
+      <c r="V276" s="92"/>
+      <c r="W276" s="92"/>
+      <c r="X276" s="93"/>
+      <c r="Y276" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z276" s="92"/>
+      <c r="AA276" s="92"/>
+      <c r="AB276" s="92"/>
+      <c r="AC276" s="92"/>
+      <c r="AD276" s="92"/>
+      <c r="AE276" s="92"/>
+      <c r="AF276" s="92"/>
+      <c r="AG276" s="93"/>
+      <c r="AJ276" s="8"/>
       <c r="AM276" s="7"/>
       <c r="AO276" s="8"/>
     </row>
     <row r="277" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A277" s="7"/>
+      <c r="C277" s="7"/>
+      <c r="G277" s="8"/>
+      <c r="J277" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K277" s="90"/>
+      <c r="L277" s="90"/>
+      <c r="M277" s="90"/>
+      <c r="N277" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O277" s="90"/>
+      <c r="P277" s="90"/>
+      <c r="Q277" s="90"/>
+      <c r="R277" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S277" s="90"/>
+      <c r="T277" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U277" s="92"/>
+      <c r="V277" s="92"/>
+      <c r="W277" s="92"/>
+      <c r="X277" s="93"/>
+      <c r="Y277" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z277" s="92"/>
+      <c r="AA277" s="92"/>
+      <c r="AB277" s="92"/>
+      <c r="AC277" s="92"/>
+      <c r="AD277" s="92"/>
+      <c r="AE277" s="92"/>
+      <c r="AF277" s="92"/>
+      <c r="AG277" s="93"/>
+      <c r="AJ277" s="8"/>
       <c r="AM277" s="7"/>
       <c r="AO277" s="8"/>
     </row>
     <row r="278" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A278" s="7"/>
+      <c r="C278" s="7"/>
+      <c r="G278" s="8"/>
+      <c r="J278" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="K278" s="90"/>
+      <c r="L278" s="90"/>
+      <c r="M278" s="90"/>
+      <c r="N278" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O278" s="90"/>
+      <c r="P278" s="90"/>
+      <c r="Q278" s="90"/>
+      <c r="R278" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="S278" s="90"/>
+      <c r="T278" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U278" s="92"/>
+      <c r="V278" s="92"/>
+      <c r="W278" s="92"/>
+      <c r="X278" s="93"/>
+      <c r="Y278" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z278" s="92"/>
+      <c r="AA278" s="92"/>
+      <c r="AB278" s="92"/>
+      <c r="AC278" s="92"/>
+      <c r="AD278" s="92"/>
+      <c r="AE278" s="92"/>
+      <c r="AF278" s="92"/>
+      <c r="AG278" s="93"/>
+      <c r="AJ278" s="8"/>
       <c r="AM278" s="7"/>
       <c r="AO278" s="8"/>
     </row>
     <row r="279" spans="1:41" ht="19.899999999999999" customHeight="1">
-      <c r="A279" s="9"/>
-      <c r="B279" s="10"/>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10"/>
-      <c r="E279" s="10"/>
-      <c r="F279" s="10"/>
-      <c r="G279" s="10"/>
-      <c r="H279" s="10"/>
-      <c r="I279" s="10"/>
-      <c r="J279" s="10"/>
-      <c r="K279" s="10"/>
-      <c r="L279" s="10"/>
-      <c r="M279" s="10"/>
-      <c r="N279" s="10"/>
-      <c r="O279" s="10"/>
-      <c r="P279" s="10"/>
-      <c r="Q279" s="10"/>
-      <c r="R279" s="10"/>
-      <c r="S279" s="10"/>
-      <c r="T279" s="10"/>
-      <c r="U279" s="10"/>
-      <c r="V279" s="10"/>
-      <c r="W279" s="10"/>
-      <c r="X279" s="10"/>
-      <c r="Y279" s="10"/>
-      <c r="Z279" s="10"/>
-      <c r="AA279" s="10"/>
-      <c r="AB279" s="10"/>
-      <c r="AC279" s="10"/>
-      <c r="AD279" s="10"/>
-      <c r="AE279" s="10"/>
-      <c r="AF279" s="10"/>
-      <c r="AG279" s="10"/>
-      <c r="AH279" s="10"/>
-      <c r="AI279" s="10"/>
-      <c r="AJ279" s="10"/>
-      <c r="AK279" s="10"/>
-      <c r="AL279" s="10"/>
-      <c r="AM279" s="9"/>
-      <c r="AN279" s="10"/>
-      <c r="AO279" s="11"/>
+      <c r="A279" s="7"/>
+      <c r="C279" s="7"/>
+      <c r="G279" s="8"/>
+      <c r="AJ279" s="8"/>
+      <c r="AM279" s="7"/>
+      <c r="AO279" s="8"/>
+    </row>
+    <row r="280" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A280" s="7"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="10"/>
+      <c r="K280" s="10"/>
+      <c r="L280" s="10"/>
+      <c r="M280" s="10"/>
+      <c r="N280" s="10"/>
+      <c r="O280" s="10"/>
+      <c r="P280" s="10"/>
+      <c r="Q280" s="10"/>
+      <c r="R280" s="10"/>
+      <c r="S280" s="10"/>
+      <c r="T280" s="10"/>
+      <c r="U280" s="10"/>
+      <c r="V280" s="10"/>
+      <c r="W280" s="10"/>
+      <c r="X280" s="10"/>
+      <c r="Y280" s="10"/>
+      <c r="Z280" s="10"/>
+      <c r="AA280" s="10"/>
+      <c r="AB280" s="10"/>
+      <c r="AC280" s="10"/>
+      <c r="AD280" s="10"/>
+      <c r="AE280" s="10"/>
+      <c r="AF280" s="10"/>
+      <c r="AG280" s="10"/>
+      <c r="AH280" s="10"/>
+      <c r="AI280" s="10"/>
+      <c r="AJ280" s="11"/>
+      <c r="AM280" s="7"/>
+      <c r="AO280" s="8"/>
+    </row>
+    <row r="281" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A281" s="7"/>
+      <c r="AM281" s="7"/>
+      <c r="AO281" s="8"/>
+    </row>
+    <row r="282" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A282" s="7"/>
+      <c r="AM282" s="7"/>
+      <c r="AO282" s="8"/>
+    </row>
+    <row r="283" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A283" s="7"/>
+      <c r="AM283" s="7"/>
+      <c r="AO283" s="8"/>
+    </row>
+    <row r="284" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A284" s="7"/>
+      <c r="AM284" s="7"/>
+      <c r="AO284" s="8"/>
+    </row>
+    <row r="285" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A285" s="7"/>
+      <c r="AM285" s="7"/>
+      <c r="AO285" s="8"/>
+    </row>
+    <row r="286" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A286" s="7"/>
+      <c r="AM286" s="7"/>
+      <c r="AO286" s="8"/>
+    </row>
+    <row r="287" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A287" s="7"/>
+      <c r="AM287" s="7"/>
+      <c r="AO287" s="8"/>
+    </row>
+    <row r="288" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A288" s="7"/>
+      <c r="AM288" s="7"/>
+      <c r="AO288" s="8"/>
+    </row>
+    <row r="289" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A289" s="7"/>
+      <c r="AM289" s="7"/>
+      <c r="AO289" s="8"/>
+    </row>
+    <row r="290" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A290" s="7"/>
+      <c r="AM290" s="7"/>
+      <c r="AO290" s="8"/>
+    </row>
+    <row r="291" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A291" s="7"/>
+      <c r="AM291" s="7"/>
+      <c r="AO291" s="8"/>
+    </row>
+    <row r="292" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A292" s="7"/>
+      <c r="AM292" s="7"/>
+      <c r="AO292" s="8"/>
+    </row>
+    <row r="293" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A293" s="7"/>
+      <c r="AM293" s="7"/>
+      <c r="AO293" s="8"/>
+    </row>
+    <row r="294" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A294" s="7"/>
+      <c r="AM294" s="7"/>
+      <c r="AO294" s="8"/>
+    </row>
+    <row r="295" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A295" s="7"/>
+      <c r="AM295" s="7"/>
+      <c r="AO295" s="8"/>
+    </row>
+    <row r="296" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A296" s="7"/>
+      <c r="AM296" s="7"/>
+      <c r="AO296" s="8"/>
+    </row>
+    <row r="297" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A297" s="7"/>
+      <c r="AM297" s="7"/>
+      <c r="AO297" s="8"/>
+    </row>
+    <row r="298" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A298" s="7"/>
+      <c r="AM298" s="7"/>
+      <c r="AO298" s="8"/>
+    </row>
+    <row r="299" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A299" s="7"/>
+      <c r="AM299" s="7"/>
+      <c r="AO299" s="8"/>
+    </row>
+    <row r="300" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A300" s="7"/>
+      <c r="AM300" s="7"/>
+      <c r="AO300" s="8"/>
+    </row>
+    <row r="301" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A301" s="7"/>
+      <c r="AM301" s="7"/>
+      <c r="AO301" s="8"/>
+    </row>
+    <row r="302" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A302" s="7"/>
+      <c r="AM302" s="7"/>
+      <c r="AO302" s="8"/>
+    </row>
+    <row r="303" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A303" s="7"/>
+      <c r="AM303" s="7"/>
+      <c r="AO303" s="8"/>
+    </row>
+    <row r="304" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A304" s="7"/>
+      <c r="AM304" s="7"/>
+      <c r="AO304" s="8"/>
+    </row>
+    <row r="305" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A305" s="7"/>
+      <c r="AM305" s="7"/>
+      <c r="AO305" s="8"/>
+    </row>
+    <row r="306" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A306" s="7"/>
+      <c r="AM306" s="7"/>
+      <c r="AO306" s="8"/>
+    </row>
+    <row r="307" spans="1:41" ht="19.899999999999999" customHeight="1">
+      <c r="A307" s="9"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="10"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="10"/>
+      <c r="K307" s="10"/>
+      <c r="L307" s="10"/>
+      <c r="M307" s="10"/>
+      <c r="N307" s="10"/>
+      <c r="O307" s="10"/>
+      <c r="P307" s="10"/>
+      <c r="Q307" s="10"/>
+      <c r="R307" s="10"/>
+      <c r="S307" s="10"/>
+      <c r="T307" s="10"/>
+      <c r="U307" s="10"/>
+      <c r="V307" s="10"/>
+      <c r="W307" s="10"/>
+      <c r="X307" s="10"/>
+      <c r="Y307" s="10"/>
+      <c r="Z307" s="10"/>
+      <c r="AA307" s="10"/>
+      <c r="AB307" s="10"/>
+      <c r="AC307" s="10"/>
+      <c r="AD307" s="10"/>
+      <c r="AE307" s="10"/>
+      <c r="AF307" s="10"/>
+      <c r="AG307" s="10"/>
+      <c r="AH307" s="10"/>
+      <c r="AI307" s="10"/>
+      <c r="AJ307" s="10"/>
+      <c r="AK307" s="10"/>
+      <c r="AL307" s="10"/>
+      <c r="AM307" s="9"/>
+      <c r="AN307" s="10"/>
+      <c r="AO307" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="593">
     <mergeCell ref="J178:M178"/>
     <mergeCell ref="N178:Q178"/>
     <mergeCell ref="R178:S178"/>
@@ -12453,6 +13396,92 @@
     <mergeCell ref="R247:S247"/>
     <mergeCell ref="T247:X247"/>
     <mergeCell ref="Y247:AG247"/>
+    <mergeCell ref="D257:F257"/>
+    <mergeCell ref="N260:Q260"/>
+    <mergeCell ref="T260:W260"/>
+    <mergeCell ref="Z260:AA260"/>
+    <mergeCell ref="AB260:AC260"/>
+    <mergeCell ref="AF260:AG260"/>
+    <mergeCell ref="J263:M263"/>
+    <mergeCell ref="N263:Q263"/>
+    <mergeCell ref="R263:S263"/>
+    <mergeCell ref="T263:X263"/>
+    <mergeCell ref="Y263:AG263"/>
+    <mergeCell ref="J264:M264"/>
+    <mergeCell ref="N264:Q264"/>
+    <mergeCell ref="R264:S264"/>
+    <mergeCell ref="T264:X264"/>
+    <mergeCell ref="Y264:AG264"/>
+    <mergeCell ref="J265:M265"/>
+    <mergeCell ref="N265:Q265"/>
+    <mergeCell ref="R265:S265"/>
+    <mergeCell ref="T265:X265"/>
+    <mergeCell ref="Y265:AG265"/>
+    <mergeCell ref="J266:M266"/>
+    <mergeCell ref="N266:Q266"/>
+    <mergeCell ref="R266:S266"/>
+    <mergeCell ref="T266:X266"/>
+    <mergeCell ref="Y266:AG266"/>
+    <mergeCell ref="J267:M267"/>
+    <mergeCell ref="N267:Q267"/>
+    <mergeCell ref="R267:S267"/>
+    <mergeCell ref="T267:X267"/>
+    <mergeCell ref="Y267:AG267"/>
+    <mergeCell ref="J268:M268"/>
+    <mergeCell ref="N268:Q268"/>
+    <mergeCell ref="R268:S268"/>
+    <mergeCell ref="T268:X268"/>
+    <mergeCell ref="Y268:AG268"/>
+    <mergeCell ref="J269:M269"/>
+    <mergeCell ref="N269:Q269"/>
+    <mergeCell ref="R269:S269"/>
+    <mergeCell ref="T269:X269"/>
+    <mergeCell ref="Y269:AG269"/>
+    <mergeCell ref="J270:M270"/>
+    <mergeCell ref="N270:Q270"/>
+    <mergeCell ref="R270:S270"/>
+    <mergeCell ref="T270:X270"/>
+    <mergeCell ref="Y270:AG270"/>
+    <mergeCell ref="J271:M271"/>
+    <mergeCell ref="N271:Q271"/>
+    <mergeCell ref="R271:S271"/>
+    <mergeCell ref="T271:X271"/>
+    <mergeCell ref="Y271:AG271"/>
+    <mergeCell ref="J272:M272"/>
+    <mergeCell ref="N272:Q272"/>
+    <mergeCell ref="R272:S272"/>
+    <mergeCell ref="T272:X272"/>
+    <mergeCell ref="Y272:AG272"/>
+    <mergeCell ref="J273:M273"/>
+    <mergeCell ref="N273:Q273"/>
+    <mergeCell ref="R273:S273"/>
+    <mergeCell ref="T273:X273"/>
+    <mergeCell ref="Y273:AG273"/>
+    <mergeCell ref="J274:M274"/>
+    <mergeCell ref="N274:Q274"/>
+    <mergeCell ref="R274:S274"/>
+    <mergeCell ref="T274:X274"/>
+    <mergeCell ref="Y274:AG274"/>
+    <mergeCell ref="J275:M275"/>
+    <mergeCell ref="N275:Q275"/>
+    <mergeCell ref="R275:S275"/>
+    <mergeCell ref="T275:X275"/>
+    <mergeCell ref="Y275:AG275"/>
+    <mergeCell ref="J278:M278"/>
+    <mergeCell ref="N278:Q278"/>
+    <mergeCell ref="R278:S278"/>
+    <mergeCell ref="T278:X278"/>
+    <mergeCell ref="Y278:AG278"/>
+    <mergeCell ref="J276:M276"/>
+    <mergeCell ref="N276:Q276"/>
+    <mergeCell ref="R276:S276"/>
+    <mergeCell ref="T276:X276"/>
+    <mergeCell ref="Y276:AG276"/>
+    <mergeCell ref="J277:M277"/>
+    <mergeCell ref="N277:Q277"/>
+    <mergeCell ref="R277:S277"/>
+    <mergeCell ref="T277:X277"/>
+    <mergeCell ref="Y277:AG277"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14509,7 +15538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A1A97F-56E4-6648-9A48-958A7171C634}">
   <dimension ref="A1:AO122"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AL3" sqref="AL3:AO4"/>
     </sheetView>
   </sheetViews>
@@ -14879,7 +15908,7 @@
       <c r="G8" s="55"/>
       <c r="H8" s="17"/>
       <c r="I8" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
@@ -14925,7 +15954,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="56"/>
       <c r="J9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
@@ -14969,7 +15998,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="56"/>
       <c r="J10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
@@ -15144,7 +16173,7 @@
       <c r="H14" s="17"/>
       <c r="I14" s="48"/>
       <c r="J14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
@@ -15947,7 +16976,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="1"/>
       <c r="J32" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K32" s="19"/>
       <c r="L32" s="1"/>
@@ -15993,7 +17022,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -16038,7 +17067,7 @@
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
       <c r="K34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L34" s="50"/>
       <c r="M34" s="50"/>
@@ -16701,7 +17730,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L49" s="31"/>
       <c r="M49" s="1"/>
@@ -16748,7 +17777,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="31"/>
       <c r="M50" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -16793,7 +17822,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="31"/>
       <c r="M51" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -16837,7 +17866,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="M52" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N52" s="1"/>
       <c r="P52" s="1"/>
@@ -17009,7 +18038,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -17054,7 +18083,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -17099,7 +18128,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -17144,7 +18173,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -17842,7 +18871,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -17888,7 +18917,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -17933,7 +18962,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L76" s="50"/>
       <c r="M76" s="1"/>
@@ -18132,7 +19161,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="1"/>
       <c r="J81" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="31"/>
@@ -18178,7 +19207,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -18224,7 +19253,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -18269,7 +19298,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -18356,7 +19385,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L86" s="31"/>
       <c r="M86" s="1"/>
@@ -18402,7 +19431,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -18447,7 +19476,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -18534,7 +19563,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L90" s="31"/>
       <c r="M90" s="1"/>
@@ -18580,7 +19609,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -18625,7 +19654,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
